--- a/iFLYTEK/Greenhouse/提交记录.xlsx
+++ b/iFLYTEK/Greenhouse/提交记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>特征工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,22 @@
   <si>
     <t>1. 室内湿度-室外湿度
 2. 室内压强-室外压强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线下mae分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线下mse分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习率0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习率0.001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -66,12 +82,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -86,11 +108,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -371,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -382,45 +405,97 @@
     <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>20200730</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>434</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>0.15024999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>0.14168</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6">
         <v>0.13882</v>
       </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>20200731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.15428</v>
+      </c>
+      <c r="C10">
+        <v>3.8980000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.15479999999999999</v>
+      </c>
+      <c r="C11">
+        <v>3.934E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.14469000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/iFLYTEK/Greenhouse/提交记录.xlsx
+++ b/iFLYTEK/Greenhouse/提交记录.xlsx
@@ -19,17 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>特征工程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线下分数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线上分数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -59,6 +51,22 @@
   </si>
   <si>
     <t>学习率0.001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线上mse分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征重要性取95%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.16126，全部特征，没有参考意义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.04319，全部特征，没有参考意义</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,15 +402,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -415,38 +426,47 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
         <v>0.15024999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
         <v>0.14168</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.14399000000000001</v>
+      </c>
       <c r="C6">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="D6">
         <v>0.13882</v>
       </c>
     </row>
@@ -460,18 +480,18 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>0.15428</v>
@@ -479,10 +499,13 @@
       <c r="C10">
         <v>3.8980000000000001E-2</v>
       </c>
+      <c r="D10">
+        <v>0.14168</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>0.15479999999999999</v>
@@ -496,6 +519,39 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>20200803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>0.12637999999999999</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/iFLYTEK/Greenhouse/提交记录.xlsx
+++ b/iFLYTEK/Greenhouse/提交记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>特征工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>0.04319，全部特征，没有参考意义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关性分析98%+特征重要性取95%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.03919，全部特征，没有参考意义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.15272，全部特征，没有参考意义</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -553,6 +565,39 @@
         <v>0.12637999999999999</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>20200804</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <v>0.11708</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/iFLYTEK/Greenhouse/提交记录.xlsx
+++ b/iFLYTEK/Greenhouse/提交记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="7200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>特征工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,7 +70,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>相关性分析98%+特征重要性取95%</t>
+    <t>0.15272，全部特征，没有参考意义</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -78,7 +78,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.15272，全部特征，没有参考意义</t>
+    <t>相关性分析0.98+特征重要性取0.95，学习率=0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关性分析0.9+特征重要性取0.95，学习率=0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.03706，全部特征，没有参考意义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.15369，全部特征，没有参考意义</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -86,7 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +112,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -128,12 +147,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -414,26 +434,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="20" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
         <v>20200730</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -447,47 +468,47 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>434</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0.15024999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>0.14168</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
         <v>0.14399000000000001</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>3.2399999999999998E-2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>0.13882</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>20200731</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -501,43 +522,43 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>0.15428</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>3.8980000000000001E-2</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>0.14168</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>0.15479999999999999</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>3.934E-2</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>0.14469000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>20200803</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -551,26 +572,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>0.12637999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>20200804</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
@@ -584,18 +605,51 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>0.11708</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>20200805</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.16500999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/iFLYTEK/Greenhouse/提交记录.xlsx
+++ b/iFLYTEK/Greenhouse/提交记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="7200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17736" windowHeight="7200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>特征工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t>0.15369，全部特征，没有参考意义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关性分析0.98+特征重要性取0.95，学习率=0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.14937，全部特征，没有参考意义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.03662，全部特征，没有参考意义</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,27 +446,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>20200730</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -468,7 +480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -476,7 +488,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -484,7 +496,7 @@
         <v>0.15024999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -492,7 +504,7 @@
         <v>0.14168</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
         <v>0.14399000000000001</v>
       </c>
@@ -503,12 +515,12 @@
         <v>0.13882</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>20200731</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -522,7 +534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -536,7 +548,7 @@
         <v>0.14168</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -550,15 +562,15 @@
         <v>0.14469000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>20200803</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -572,7 +584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -586,12 +598,12 @@
         <v>0.12637999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>20200804</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
@@ -605,7 +617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -619,12 +631,12 @@
         <v>0.11708</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>20200805</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
@@ -638,7 +650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
@@ -650,6 +662,39 @@
       </c>
       <c r="D26" s="1">
         <v>0.16500999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>20200806</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.115</v>
       </c>
     </row>
   </sheetData>

--- a/iFLYTEK/Greenhouse/提交记录.xlsx
+++ b/iFLYTEK/Greenhouse/提交记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
     <t>特征工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,14 @@
   </si>
   <si>
     <t>0.03662，全部特征，没有参考意义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并行，相关性0.9+特征重要性取0.95，学习率0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线下rmse分数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -142,7 +150,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -159,13 +167,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -446,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -467,16 +476,16 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -497,7 +506,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1">
@@ -521,16 +530,16 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -563,7 +572,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
+      <c r="A12" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
@@ -571,16 +580,16 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -604,16 +613,16 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -637,16 +646,16 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -670,16 +679,16 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -696,6 +705,59 @@
       <c r="D31" s="1">
         <v>0.115</v>
       </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.15997</v>
+      </c>
+      <c r="C32" s="3">
+        <v>4.1006000000000001E-2</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.17212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>20200807</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0.17871999999999999</v>
+      </c>
+      <c r="C37" s="3">
+        <v>3.1939000000000002E-2</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.14749999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/iFLYTEK/Greenhouse/提交记录.xlsx
+++ b/iFLYTEK/Greenhouse/提交记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17736" windowHeight="7200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="7200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
   <si>
     <t>特征工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,14 @@
   </si>
   <si>
     <t>线下rmse分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关性分析0.98+特征重要性取0.92，学习率=0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线下mae分数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -118,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +144,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -167,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -175,6 +190,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -455,27 +473,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="42.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>20200730</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -489,7 +507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -497,7 +515,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -505,7 +523,7 @@
         <v>0.15024999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -513,7 +531,7 @@
         <v>0.14168</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>0.14399000000000001</v>
       </c>
@@ -524,12 +542,12 @@
         <v>0.13882</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>20200731</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
@@ -543,7 +561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -557,7 +575,7 @@
         <v>0.14168</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -571,15 +589,15 @@
         <v>0.14469000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>20200803</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>0</v>
       </c>
@@ -593,7 +611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -607,12 +625,12 @@
         <v>0.12637999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>20200804</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>0</v>
       </c>
@@ -626,7 +644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -640,12 +658,12 @@
         <v>0.11708</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20200805</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>0</v>
       </c>
@@ -659,7 +677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
@@ -673,12 +691,12 @@
         <v>0.16500999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>20200806</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>0</v>
       </c>
@@ -692,7 +710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
@@ -706,7 +724,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>21</v>
       </c>
@@ -720,12 +738,12 @@
         <v>0.17212</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>20200807</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>0</v>
       </c>
@@ -739,7 +757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>14</v>
       </c>
@@ -753,11 +771,44 @@
         <v>0.14749999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>20200816</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.15176000000000001</v>
+      </c>
+      <c r="C42" s="5">
+        <v>3.7816000000000002E-2</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.1144</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/iFLYTEK/Greenhouse/提交记录.xlsx
+++ b/iFLYTEK/Greenhouse/提交记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
   <si>
     <t>特征工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,10 @@
   </si>
   <si>
     <t>线下mae分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关性分析0.98+特征重要性取0.90，学习率=0.05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -126,7 +130,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +159,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -182,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -193,6 +203,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -473,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -810,6 +821,20 @@
         <v>0.1144</v>
       </c>
     </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.15412000000000001</v>
+      </c>
+      <c r="C43" s="3">
+        <v>3.8629999999999998E-2</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0.15598999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/iFLYTEK/Greenhouse/提交记录.xlsx
+++ b/iFLYTEK/Greenhouse/提交记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17730" windowHeight="7200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17736" windowHeight="7200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
   <si>
     <t>特征工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>特征重要性取95%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.16126，全部特征，没有参考意义</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,14 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>相关性分析0.98+特征重要性取0.95，学习率=0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相关性分析0.9+特征重要性取0.95，学习率=0.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.03706，全部特征，没有参考意义</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>相关性分析0.98+特征重要性取0.95，学习率=0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.14937，全部特征，没有参考意义</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,23 +90,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>并行，相关性0.9+特征重要性取0.95，学习率0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>线下rmse分数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>相关性分析0.98+特征重要性取0.92，学习率=0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>线下mae分数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>相关性分析0.98+特征重要性取0.90，学习率=0.05</t>
+    <t>corr&gt;0.95, imp&gt;0.98, lr=0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corr&gt;0.98, imp&gt;0.90, lr=0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corr&gt;0.98, imp&gt;0.90, lr=0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corr&gt;0.98, imp&gt;0.92, lr=0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corr&gt;0.98, imp&gt;0.95, lr=0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并行，corr&gt;0.9, imp&gt;0.95, lr=0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corr&gt;0.98, imp&gt;0.95, lr=0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imp&gt;0.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corr&gt;0.9, imp&gt;0.95, lr=0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corr&gt;0.98, imp&gt;0.95, lr=0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,12 +171,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -192,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -203,7 +209,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -484,27 +489,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="50.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>20200730</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -518,7 +523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -526,7 +531,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -534,7 +539,7 @@
         <v>0.15024999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -542,7 +547,7 @@
         <v>0.14168</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
         <v>0.14399000000000001</v>
       </c>
@@ -553,12 +558,12 @@
         <v>0.13882</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>20200731</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
@@ -572,7 +577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -586,7 +591,7 @@
         <v>0.14168</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -600,15 +605,15 @@
         <v>0.14469000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>20200803</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>0</v>
       </c>
@@ -622,26 +627,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D16" s="1">
         <v>0.12637999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>20200804</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>0</v>
       </c>
@@ -655,26 +660,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D21" s="1">
         <v>0.11708</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>20200805</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>0</v>
       </c>
@@ -688,26 +693,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D26" s="1">
         <v>0.16500999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>20200806</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>0</v>
       </c>
@@ -721,23 +726,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D31" s="1">
         <v>0.115</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B32" s="3">
         <v>0.15997</v>
@@ -749,17 +754,17 @@
         <v>0.17212</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>20200807</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>5</v>
@@ -768,9 +773,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B37" s="3">
         <v>0.17871999999999999</v>
@@ -782,23 +787,23 @@
         <v>0.14749999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>20200816</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>5</v>
@@ -807,9 +812,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B42" s="3">
         <v>0.15176000000000001</v>
@@ -821,9 +826,9 @@
         <v>0.1144</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B43" s="3">
         <v>0.15412000000000001</v>
@@ -831,8 +836,55 @@
       <c r="C43" s="3">
         <v>3.8629999999999998E-2</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="3">
         <v>0.15598999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>20200817</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.15176000000000001</v>
+      </c>
+      <c r="C48" s="1">
+        <v>3.7810000000000003E-2</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.11842</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.15214</v>
+      </c>
+      <c r="C49" s="1">
+        <v>3.9163999999999997E-2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.12478</v>
       </c>
     </row>
   </sheetData>

--- a/iFLYTEK/Greenhouse/提交记录.xlsx
+++ b/iFLYTEK/Greenhouse/提交记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>特征工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,10 @@
   </si>
   <si>
     <t>corr&gt;0.98, imp&gt;0.95, lr=0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corr&gt;0.98, imp&gt;0.90, lr=0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -142,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,13 +164,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -198,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -206,9 +203,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -489,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -819,7 +813,7 @@
       <c r="B42" s="3">
         <v>0.15176000000000001</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="3">
         <v>3.7816000000000002E-2</v>
       </c>
       <c r="D42" s="3">
@@ -885,6 +879,20 @@
       </c>
       <c r="D49" s="1">
         <v>0.12478</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.15176000000000001</v>
+      </c>
+      <c r="C50" s="1">
+        <v>3.7810000000000003E-2</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.1158</v>
       </c>
     </row>
   </sheetData>

--- a/iFLYTEK/Greenhouse/提交记录.xlsx
+++ b/iFLYTEK/Greenhouse/提交记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
     <t>特征工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,10 @@
   </si>
   <si>
     <t>corr&gt;0.98, imp&gt;0.90, lr=0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corr&gt;0.98, imp&gt;0.93, lr=0.01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50:D50"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -895,6 +899,39 @@
         <v>0.1158</v>
       </c>
     </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>20200817</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.15176000000000001</v>
+      </c>
+      <c r="C55" s="1">
+        <v>3.7810000000000003E-2</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.11361</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
